--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>203.2760524694102</v>
+        <v>317.6517125631183</v>
       </c>
       <c r="R2">
-        <v>1829.484472224692</v>
+        <v>2858.865413068064</v>
       </c>
       <c r="S2">
-        <v>0.004815544676122433</v>
+        <v>0.005647444950674681</v>
       </c>
       <c r="T2">
-        <v>0.004815544676122432</v>
+        <v>0.005647444950674681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>223.4948012569631</v>
+        <v>368.011260030841</v>
       </c>
       <c r="R3">
-        <v>2011.453211312668</v>
+        <v>3312.101340277568</v>
       </c>
       <c r="S3">
-        <v>0.005294520369023639</v>
+        <v>0.00654277389371742</v>
       </c>
       <c r="T3">
-        <v>0.005294520369023637</v>
+        <v>0.00654277389371742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>123.8791933685943</v>
+        <v>279.3362006975716</v>
       </c>
       <c r="R4">
-        <v>1114.912740317349</v>
+        <v>2514.025806278144</v>
       </c>
       <c r="S4">
-        <v>0.002934658474825737</v>
+        <v>0.004966243699557229</v>
       </c>
       <c r="T4">
-        <v>0.002934658474825736</v>
+        <v>0.004966243699557229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>90.1531995643189</v>
+        <v>143.3700247183947</v>
       </c>
       <c r="R5">
-        <v>811.3787960788701</v>
+        <v>1290.330222465552</v>
       </c>
       <c r="S5">
-        <v>0.00213570046704193</v>
+        <v>0.002548937374336106</v>
       </c>
       <c r="T5">
-        <v>0.002135700467041929</v>
+        <v>0.002548937374336106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>12462.95370025128</v>
+        <v>11827.48164752665</v>
       </c>
       <c r="R6">
-        <v>112166.5833022615</v>
+        <v>106447.3348277398</v>
       </c>
       <c r="S6">
-        <v>0.2952433875556338</v>
+        <v>0.210277637008645</v>
       </c>
       <c r="T6">
-        <v>0.2952433875556337</v>
+        <v>0.210277637008645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>13702.57502777683</v>
@@ -883,10 +883,10 @@
         <v>123323.1752499915</v>
       </c>
       <c r="S7">
-        <v>0.3246096203787147</v>
+        <v>0.2436144213656103</v>
       </c>
       <c r="T7">
-        <v>0.3246096203787145</v>
+        <v>0.2436144213656104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>7595.093630665613</v>
+        <v>10400.8373214228</v>
       </c>
       <c r="R8">
-        <v>68355.84267599051</v>
+        <v>93607.53589280519</v>
       </c>
       <c r="S8">
-        <v>0.1799253392295538</v>
+        <v>0.1849137086014813</v>
       </c>
       <c r="T8">
-        <v>0.1799253392295537</v>
+        <v>0.1849137086014814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>5527.336537926425</v>
+        <v>5338.256553001625</v>
       </c>
       <c r="R9">
-        <v>49746.02884133783</v>
+        <v>48044.30897701462</v>
       </c>
       <c r="S9">
-        <v>0.1309408349631054</v>
+        <v>0.09490743737030745</v>
       </c>
       <c r="T9">
-        <v>0.1309408349631054</v>
+        <v>0.09490743737030746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>541.3303163271991</v>
+        <v>3740.467982079259</v>
       </c>
       <c r="R10">
-        <v>4871.972846944792</v>
+        <v>33664.21183871333</v>
       </c>
       <c r="S10">
-        <v>0.01282394207849643</v>
+        <v>0.06650078114833526</v>
       </c>
       <c r="T10">
-        <v>0.01282394207849642</v>
+        <v>0.06650078114833526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>595.1734598945077</v>
+        <v>4333.470529980171</v>
       </c>
       <c r="R11">
-        <v>5356.561139050569</v>
+        <v>39001.23476982154</v>
       </c>
       <c r="S11">
-        <v>0.01409946893078153</v>
+        <v>0.07704361505235453</v>
       </c>
       <c r="T11">
-        <v>0.01409946893078153</v>
+        <v>0.07704361505235453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>329.8940633583527</v>
+        <v>3289.288467907499</v>
       </c>
       <c r="R12">
-        <v>2969.046570225174</v>
+        <v>29603.59621116749</v>
       </c>
       <c r="S12">
-        <v>0.007815084862142207</v>
+        <v>0.05847938107906642</v>
       </c>
       <c r="T12">
-        <v>0.007815084862142203</v>
+        <v>0.05847938107906642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>240.0807150926245</v>
+        <v>1688.235781012856</v>
       </c>
       <c r="R13">
-        <v>2160.726435833621</v>
+        <v>15194.1220291157</v>
       </c>
       <c r="S13">
-        <v>0.005687435363680788</v>
+        <v>0.03001469301109121</v>
       </c>
       <c r="T13">
-        <v>0.005687435363680785</v>
+        <v>0.03001469301109121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>183.1102207480333</v>
+        <v>234.4324496017518</v>
       </c>
       <c r="R14">
-        <v>1647.9919867323</v>
+        <v>2109.892046415766</v>
       </c>
       <c r="S14">
-        <v>0.004337822571596272</v>
+        <v>0.00416791190292934</v>
       </c>
       <c r="T14">
-        <v>0.00433782257159627</v>
+        <v>0.00416791190292934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>201.3231853779667</v>
+        <v>271.5986653240992</v>
       </c>
       <c r="R15">
-        <v>1811.9086684017</v>
+        <v>2444.387987916892</v>
       </c>
       <c r="S15">
-        <v>0.004769281879245313</v>
+        <v>0.004828680124901855</v>
       </c>
       <c r="T15">
-        <v>0.00476928187924531</v>
+        <v>0.004828680124901855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>111.589861020275</v>
+        <v>206.1549401499485</v>
       </c>
       <c r="R16">
-        <v>1004.308749182475</v>
+        <v>1855.394461349536</v>
       </c>
       <c r="S16">
-        <v>0.00264352812157395</v>
+        <v>0.003665173615505467</v>
       </c>
       <c r="T16">
-        <v>0.002643528121573949</v>
+        <v>0.003665173615505467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>81.20962638158336</v>
+        <v>105.8095541906403</v>
       </c>
       <c r="R17">
-        <v>730.8866374342501</v>
+        <v>952.2859877157629</v>
       </c>
       <c r="S17">
-        <v>0.001923830078462269</v>
+        <v>0.001881159801486463</v>
       </c>
       <c r="T17">
-        <v>0.001923830078462268</v>
+        <v>0.001881159801486463</v>
       </c>
     </row>
   </sheetData>
